--- a/Task Assignment.xlsx
+++ b/Task Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khrystyne\Documents\GitHub\Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C1C5DF7-BFF7-4352-AEB7-9CE34C09A311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932672E7-A7B4-4738-A661-9CB3473BBBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3195" windowWidth="16560" windowHeight="12735" xr2:uid="{41691A66-6882-4310-A649-EF1A7C7BAFC1}"/>
+    <workbookView xWindow="240" yWindow="2745" windowWidth="16560" windowHeight="12735" xr2:uid="{41691A66-6882-4310-A649-EF1A7C7BAFC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t>Khrystyne- Approaches</t>
+  </si>
+  <si>
+    <t>Derek- Indifferent</t>
+  </si>
+  <si>
+    <t>Derek- Runs away</t>
+  </si>
+  <si>
+    <t>Khrystyne- Tail Twitches</t>
+  </si>
+  <si>
+    <t>Khrystyne- Tail Flags</t>
   </si>
 </sst>
 </file>
@@ -212,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -236,9 +251,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -557,19 +569,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36AAF3A-9E02-4AB1-8506-7160C425C811}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -589,7 +604,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -598,7 +613,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -609,7 +624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -617,8 +632,14 @@
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -626,8 +647,17 @@
         <v>10</v>
       </c>
       <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -638,14 +668,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
